--- a/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1520690615912411</v>
+        <v>0.1568605448721842</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1592225586308288</v>
+        <v>0.1578758567248468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3589920410644525</v>
+        <v>0.3554556398631767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08264896113299296</v>
+        <v>0.08449973995439604</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1366066494027208</v>
+        <v>0.1381144379919214</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2207065020424466</v>
+        <v>0.2222131665499223</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1242088281496885</v>
+        <v>0.1235023666031305</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1636826471671249</v>
+        <v>0.1655445686151794</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2929615546265853</v>
+        <v>0.29583959588276</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.303590253560199</v>
+        <v>0.3065833886215707</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3202816236118435</v>
+        <v>0.3130536744548275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5952176056342373</v>
+        <v>0.5974955047681373</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1552863531547009</v>
+        <v>0.1577350573190109</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2637720159471582</v>
+        <v>0.266749235273247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3331298233819842</v>
+        <v>0.3359588726275083</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1993040226613549</v>
+        <v>0.1986622688863857</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2597917593022475</v>
+        <v>0.2627443784821524</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4112823496273904</v>
+        <v>0.414131584652887</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4308776367606272</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.054209385300591</v>
+        <v>1.05420938530059</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2592216949983983</v>
@@ -769,7 +769,7 @@
         <v>0.3742862207590451</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8986891681021445</v>
+        <v>0.8986891681021444</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2966185653803664</v>
+        <v>0.2931691573959337</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3682958222540416</v>
+        <v>0.3745423435120683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9586219446574766</v>
+        <v>0.9609947369980461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2164863057752754</v>
+        <v>0.211103090460277</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2690804645849482</v>
+        <v>0.2662920208932336</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6756503197474381</v>
+        <v>0.6817728860257762</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2672794517479641</v>
+        <v>0.2653045524801655</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3358091677467056</v>
+        <v>0.334213020116224</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.846105186890131</v>
+        <v>0.8415234374536881</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4039771799236959</v>
+        <v>0.3975644371235956</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4874676449993661</v>
+        <v>0.4955123834979326</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.154624229954429</v>
+        <v>1.161495952556079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3156560036036708</v>
+        <v>0.3097097726903449</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3718693316642669</v>
+        <v>0.3681955445695357</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8078783351400909</v>
+        <v>0.8169457082125576</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3407287950710162</v>
+        <v>0.3387239068361081</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4151673596624983</v>
+        <v>0.4125981350897751</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.959783465569063</v>
+        <v>0.9602799880902246</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3287044476047054</v>
+        <v>0.323195865918264</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5427997028549396</v>
+        <v>0.5249008916620722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8778244274793519</v>
+        <v>0.8780294149002503</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.247573463180932</v>
+        <v>0.2530343671076808</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3317195603165683</v>
+        <v>0.3459532557167341</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9230885815455072</v>
+        <v>0.9204758439807033</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3044457984748316</v>
+        <v>0.3057487520281315</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4728366373952962</v>
+        <v>0.4681793581963783</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9371921784077463</v>
+        <v>0.9415743760719985</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6038558523854449</v>
+        <v>0.5830375273587345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8486736599820479</v>
+        <v>0.8164407180479585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.192419245688829</v>
+        <v>1.195785585485496</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5237738661869076</v>
+        <v>0.533676653973216</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5508306330091118</v>
+        <v>0.5561849825258824</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.162357176710566</v>
+        <v>1.173846408862939</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4924828272032954</v>
+        <v>0.4978025090905069</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6526393835345961</v>
+        <v>0.659261908290767</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.143480409191176</v>
+        <v>1.14034036243841</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.4239291614149644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9518721485668454</v>
+        <v>0.9518721485668453</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2178313296329456</v>
@@ -978,7 +978,7 @@
         <v>0.3004529841141538</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.6948211232215958</v>
+        <v>0.6948211232215959</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.2677238992121602</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2806764002820653</v>
+        <v>0.2837475253435825</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3793027594657115</v>
+        <v>0.3805832990187508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.873602243279911</v>
+        <v>0.8860452403937695</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1865342134119551</v>
+        <v>0.1843556507130017</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2665815844222501</v>
+        <v>0.2644911421829357</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6506547601822007</v>
+        <v>0.6487716254284104</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2431738566782118</v>
+        <v>0.2400696027810079</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3331265643621146</v>
+        <v>0.3335908749986196</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.775000413606866</v>
+        <v>0.7797310149967449</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3625459106408288</v>
+        <v>0.360960987648828</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4733506455933117</v>
+        <v>0.4758037514388977</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.011212715026262</v>
+        <v>1.027816956744775</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2573867719247392</v>
+        <v>0.2523585510994533</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3413749353453393</v>
+        <v>0.3441030054339418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7457019376812636</v>
+        <v>0.741869866087007</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2939097011708336</v>
+        <v>0.2936670175736168</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3903512359854157</v>
+        <v>0.3923344402472864</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8654907684307812</v>
+        <v>0.8602589362762477</v>
       </c>
     </row>
     <row r="16">
